--- a/docs/ecomomics/calc.xlsx
+++ b/docs/ecomomics/calc.xlsx
@@ -24,40 +24,260 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Цена</t>
-  </si>
-  <si>
-    <t>ндс</t>
-  </si>
-  <si>
-    <t>Затраты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пед </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>Кол</t>
   </si>
   <si>
-    <t>П год</t>
-  </si>
-  <si>
-    <t>Рен</t>
-  </si>
-  <si>
-    <t>ЧП</t>
-  </si>
-  <si>
-    <t>Рен ин</t>
+    <t>Руководитель</t>
+  </si>
+  <si>
+    <t>Программист</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Премия</t>
+  </si>
+  <si>
+    <t>Всего осн зар плата</t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
+    <t>Трудоемкость, мес.</t>
+  </si>
+  <si>
+    <t>Исп</t>
+  </si>
+  <si>
+    <t>тариф оклад</t>
+  </si>
+  <si>
+    <t>трудоемкость</t>
+  </si>
+  <si>
+    <t>зп по тарифу</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Премия, %</t>
+  </si>
+  <si>
+    <t>Таб-1</t>
+  </si>
+  <si>
+    <t>Таб-2</t>
+  </si>
+  <si>
+    <t>Расчет основной заработной платы исполнителей</t>
+  </si>
+  <si>
+    <t>Расчет затрат на разработку проектной документации</t>
+  </si>
+  <si>
+    <t>Наименование статьи затрат</t>
+  </si>
+  <si>
+    <t>Расчет</t>
+  </si>
+  <si>
+    <t>Значение,руб</t>
+  </si>
+  <si>
+    <t>1. Основная заработная 
+плата раз- работчиков</t>
+  </si>
+  <si>
+    <t>2 Дополнительная зарплата</t>
+  </si>
+  <si>
+    <t>4. Всего</t>
+  </si>
+  <si>
+    <t>3. Отчисления на
+ социальные нужды</t>
+  </si>
+  <si>
+    <t>(S15+S16)*T17/100</t>
+  </si>
+  <si>
+    <t>Таб 3 – Расчет основной заработной платы исполнителей программной части</t>
+  </si>
+  <si>
+    <t>Эффективный
+ фонд времени 
+работы, дн</t>
+  </si>
+  <si>
+    <t>Категория
+ исполнителя</t>
+  </si>
+  <si>
+    <t>Дневная тарифная 
+ставка, руб.</t>
+  </si>
+  <si>
+    <t>Тарифная заработная 
+плата, руб.</t>
+  </si>
+  <si>
+    <t>Основная заработная плата</t>
+  </si>
+  <si>
+    <t>Основная 
+заработная плата</t>
+  </si>
+  <si>
+    <t>Таблица 4 – Расчет затрат научно-исследовательские работы программной части</t>
+  </si>
+  <si>
+    <t>Значение, руб.</t>
+  </si>
+  <si>
+    <t>Наименование
+ статьи затрат</t>
+  </si>
+  <si>
+    <t>1 Основная заработная
+плата разработчиков</t>
+  </si>
+  <si>
+    <t>3 Отчисления на 
+социальные нужды</t>
+  </si>
+  <si>
+    <t>2 Дополнительная
+ зарплата</t>
+  </si>
+  <si>
+    <t>S27*20/100</t>
+  </si>
+  <si>
+    <t>(S27+S28)*T17/100</t>
+  </si>
+  <si>
+    <t>Таб-5</t>
+  </si>
+  <si>
+    <t>Таб-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расчёт затрат на материалы  </t>
+  </si>
+  <si>
+    <t>таб-7</t>
+  </si>
+  <si>
+    <t>Расчет основной заработной платы на монтаж</t>
+  </si>
+  <si>
+    <t>Количество 
+исполнителей, 
+чел.</t>
+  </si>
+  <si>
+    <t>Тарифный оклад,
+ руб.</t>
+  </si>
+  <si>
+    <t>Заработная плата по 
+тарифу, руб.</t>
+  </si>
+  <si>
+    <t>1. Инженер по наладке
+ и испытаниям</t>
+  </si>
+  <si>
+    <t>2. Техник по наладке 
+и испытаниям</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Премия </t>
+  </si>
+  <si>
+    <t>Премия,%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 8 ‒ Расчет затрат на монтаж </t>
+  </si>
+  <si>
+    <t>1.Затраты на оборудование</t>
+  </si>
+  <si>
+    <t>2.Затраты на материалы</t>
+  </si>
+  <si>
+    <t>3.Основная заработная плата</t>
+  </si>
+  <si>
+    <t>4.Дополнительная зарплата</t>
+  </si>
+  <si>
+    <t>5.Отчисления на социальные нужды</t>
+  </si>
+  <si>
+    <t>Расчёт затрат на оборудование</t>
+  </si>
+  <si>
+    <t>таб-9</t>
+  </si>
+  <si>
+    <t>Капитальные вложения</t>
+  </si>
+  <si>
+    <t>1. Затраты на разработку
+проектной документации</t>
+  </si>
+  <si>
+    <t>2. Затраты на научно- исследовательские 
+работы программной части</t>
+  </si>
+  <si>
+    <t>3.Затраты на разработку 
+аппаратной части</t>
+  </si>
+  <si>
+    <t>Всего затрат на разработку</t>
+  </si>
+  <si>
+    <t>6. Отпускная цена</t>
+  </si>
+  <si>
+    <t>8. Отпускная цена с НДС</t>
+  </si>
+  <si>
+    <t>7. Налог на добавленную
+ стоимость (20 %)</t>
+  </si>
+  <si>
+    <t>Чистая Прибыль</t>
+  </si>
+  <si>
+    <t>Коэф</t>
+  </si>
+  <si>
+    <t>Рентаб</t>
+  </si>
+  <si>
+    <t>5. Прибыль (50 %)</t>
+  </si>
+  <si>
+    <t>4. Накладные расходы (50%)</t>
+  </si>
+  <si>
+    <t>R15*20/100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +286,35 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -83,17 +322,302 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -104,6 +628,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="Q14:S18" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="Q14:S18"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Наименование статьи затрат" dataDxfId="4"/>
+    <tableColumn id="2" name="Расчет" dataDxfId="3">
+      <calculatedColumnFormula>M17</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Значение,руб" dataDxfId="2">
+      <calculatedColumnFormula>R14*0.2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,98 +909,692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:F10"/>
+  <dimension ref="G12:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="8.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="2" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="27.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="24" style="2" customWidth="1"/>
+    <col min="20" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="24.5703125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="25.85546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="18" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="12" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="7:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="7:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>750</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1</v>
+      </c>
+      <c r="M15" s="9">
+        <f>K15</f>
+        <v>750</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" ref="R15:R18" si="0">M17</f>
+        <v>1480</v>
+      </c>
+      <c r="S15" s="12">
+        <f>Таблица1[[#This Row],[Расчет]]</f>
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="16" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="I16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>730</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+      <c r="M16" s="9">
+        <f>K16</f>
+        <v>730</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="12">
+        <f t="shared" ref="S16:S18" si="1">R15*0.2</f>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="7:20" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="I17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="8">
+        <f>J15+J16</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="8">
+        <f>K15+K16</f>
+        <v>1480</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="9">
+        <f>M15+M16</f>
+        <v>1480</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="12">
+        <f>(S15+S16)*T17/100</f>
+        <v>614.49600000000009</v>
+      </c>
+      <c r="T17" s="2">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="2">
+        <v>30</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="J18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="9">
+        <f>M17*H18/100</f>
+        <v>444</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="11"/>
+      <c r="S18" s="12">
+        <f>S15+S16+S17</f>
+        <v>2390.4960000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="I19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="9">
+        <f>M17+M18</f>
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="7:20" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="I26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="7:20" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="I27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="K27" s="4">
+        <v>37</v>
+      </c>
+      <c r="L27" s="4">
+        <f>K27*J27</f>
+        <v>370</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="4">
+        <f>L30</f>
+        <v>481</v>
+      </c>
+      <c r="S27" s="4">
+        <f>R27</f>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="7:20" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="I28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
+        <f>L27</f>
+        <v>370</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" s="4">
+        <f>S27*20/100</f>
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="29" spans="7:20" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="2">
+        <v>30</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4">
+        <f>L28*H29/100</f>
+        <v>111</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S29" s="4">
+        <f>(S27+S28)*T17/100</f>
+        <v>199.71120000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="7:20" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="I30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4">
+        <f>L28+L29</f>
+        <v>481</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4">
+        <f>S27+S29+S28</f>
+        <v>776.91120000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="I36" s="2">
+        <v>255.36</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="39" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="7:19" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="I41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q41" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="7:19" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="I42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="8">
         <v>1</v>
       </c>
-      <c r="E4">
-        <f>$E$3*20/120</f>
-        <v>44.666666666666664</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <f xml:space="preserve"> 811.44 + F5</f>
-        <v>1086.3000000000002</v>
-      </c>
-      <c r="F5">
-        <f>255.36 + 19.5</f>
-        <v>274.86</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+      <c r="K42" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="L42" s="8">
+        <v>810</v>
+      </c>
+      <c r="M42" s="8">
+        <f>L42*K42</f>
+        <v>243</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4">
+        <f>I36</f>
+        <v>255.36</v>
+      </c>
+    </row>
+    <row r="43" spans="7:19" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="I43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="8">
         <v>3</v>
       </c>
-      <c r="E6">
-        <f>E3-E4-(E5+E5*0.05)/E2</f>
-        <v>109.27183333333332</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <f>E6*E2</f>
-        <v>1092.7183333333332</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <f>E7/(E5+E5*0.05)</f>
-        <v>0.9580080336777379</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <f>E7-(E7*18)/100</f>
-        <v>896.02903333333325</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <f>E9/E5</f>
-        <v>0.8248449169965324</v>
+      <c r="K43" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="L43" s="8">
+        <v>720</v>
+      </c>
+      <c r="M43" s="8">
+        <f>L43*K43*J43</f>
+        <v>648</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4">
+        <f>Q36</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="44" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="I44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="8">
+        <f>J42+J43</f>
+        <v>4</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="8">
+        <f>L42+L43</f>
+        <v>1530</v>
+      </c>
+      <c r="M44" s="8">
+        <f>M43+M42</f>
+        <v>891</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4">
+        <f>M46</f>
+        <v>1069.2</v>
+      </c>
+    </row>
+    <row r="45" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="2">
+        <v>20</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8">
+        <f>M44*H45/100</f>
+        <v>178.2</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4">
+        <f>S44*20/100</f>
+        <v>213.84</v>
+      </c>
+    </row>
+    <row r="46" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="I46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8">
+        <f>M44+M45</f>
+        <v>1069.2</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4">
+        <f>(S44+S45)*T17/100</f>
+        <v>443.93184000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="Q47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4">
+        <f>S42+S43+S44+S45+S46</f>
+        <v>2001.8318399999998</v>
+      </c>
+    </row>
+    <row r="51" spans="7:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="7:11" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="I53" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="7:11" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="I54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4">
+        <f>S18</f>
+        <v>2390.4960000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="7:11" ht="105.75" x14ac:dyDescent="0.3">
+      <c r="I55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4">
+        <f>S30</f>
+        <v>776.91120000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="7:11" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="I56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4">
+        <f>S47</f>
+        <v>2001.8318399999998</v>
+      </c>
+    </row>
+    <row r="57" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="I57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4">
+        <f>K54+K55+K56</f>
+        <v>5169.2390400000004</v>
+      </c>
+    </row>
+    <row r="58" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="H58" s="2">
+        <v>50</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4">
+        <f>K57*H58/100</f>
+        <v>2584.6195200000002</v>
+      </c>
+    </row>
+    <row r="59" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="I59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4">
+        <f>K57+K58</f>
+        <v>7753.8585600000006</v>
+      </c>
+    </row>
+    <row r="60" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="H60" s="2">
+        <v>50</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4">
+        <f>K59*H60/100</f>
+        <v>3876.9292800000003</v>
+      </c>
+    </row>
+    <row r="61" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="I61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4">
+        <f>K59+K60</f>
+        <v>11630.787840000001</v>
+      </c>
+    </row>
+    <row r="62" spans="7:11" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="H62" s="2">
+        <v>20</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4">
+        <f>K61*H62/100</f>
+        <v>2326.1575680000005</v>
+      </c>
+    </row>
+    <row r="63" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="I63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4">
+        <f>K61+K62</f>
+        <v>13956.945408000001</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K66" s="2">
+        <f>K60-K60*J67/100</f>
+        <v>3179.0820096000002</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J67" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K68" s="2">
+        <f>(K66/K59)*100</f>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/docs/ecomomics/calc.xlsx
+++ b/docs/ecomomics/calc.xlsx
@@ -454,54 +454,6 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
@@ -595,26 +547,74 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -631,14 +631,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="Q14:S18" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="Q14:S18" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="Q14:S18"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Наименование статьи затрат" dataDxfId="4"/>
-    <tableColumn id="2" name="Расчет" dataDxfId="3">
+    <tableColumn id="1" name="Наименование статьи затрат" dataDxfId="2"/>
+    <tableColumn id="2" name="Расчет" dataDxfId="1">
       <calculatedColumnFormula>M17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Значение,руб" dataDxfId="2">
+    <tableColumn id="3" name="Значение,руб" dataDxfId="0">
       <calculatedColumnFormula>R14*0.2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G12:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -998,12 +998,12 @@
         <v>21</v>
       </c>
       <c r="R15" s="11">
-        <f t="shared" ref="R15:R18" si="0">M17</f>
-        <v>1480</v>
+        <f>M19</f>
+        <v>1924</v>
       </c>
       <c r="S15" s="12">
         <f>Таблица1[[#This Row],[Расчет]]</f>
-        <v>1480</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="16" spans="7:19" x14ac:dyDescent="0.3">
@@ -1030,8 +1030,8 @@
         <v>74</v>
       </c>
       <c r="S16" s="12">
-        <f t="shared" ref="S16:S18" si="1">R15*0.2</f>
-        <v>296</v>
+        <f>R15*0.2</f>
+        <v>384.8</v>
       </c>
     </row>
     <row r="17" spans="7:20" ht="37.5" x14ac:dyDescent="0.3">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="S17" s="12">
         <f>(S15+S16)*T17/100</f>
-        <v>614.49600000000009</v>
+        <v>798.84480000000008</v>
       </c>
       <c r="T17" s="2">
         <v>34.6</v>
@@ -1096,7 +1096,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12">
         <f>S15+S16+S17</f>
-        <v>2390.4960000000001</v>
+        <v>3107.6448</v>
       </c>
     </row>
     <row r="19" spans="7:20" x14ac:dyDescent="0.3">
@@ -1311,11 +1311,11 @@
         <v>0.3</v>
       </c>
       <c r="L42" s="8">
-        <v>810</v>
+        <v>510</v>
       </c>
       <c r="M42" s="8">
         <f>L42*K42</f>
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>54</v>
@@ -1337,11 +1337,11 @@
         <v>0.3</v>
       </c>
       <c r="L43" s="8">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="M43" s="8">
         <f>L43*K43*J43</f>
-        <v>648</v>
+        <v>432</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>55</v>
@@ -1365,11 +1365,11 @@
       </c>
       <c r="L44" s="8">
         <f>L42+L43</f>
-        <v>1530</v>
+        <v>990</v>
       </c>
       <c r="M44" s="8">
         <f>M43+M42</f>
-        <v>891</v>
+        <v>585</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>56</v>
@@ -1377,7 +1377,7 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4">
         <f>M46</f>
-        <v>1069.2</v>
+        <v>702</v>
       </c>
     </row>
     <row r="45" spans="7:19" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8">
         <f>M44*H45/100</f>
-        <v>178.2</v>
+        <v>117</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>57</v>
@@ -1403,7 +1403,7 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4">
         <f>S44*20/100</f>
-        <v>213.84</v>
+        <v>140.4</v>
       </c>
     </row>
     <row r="46" spans="7:19" x14ac:dyDescent="0.3">
@@ -1415,7 +1415,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8">
         <f>M44+M45</f>
-        <v>1069.2</v>
+        <v>702</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>58</v>
@@ -1423,7 +1423,7 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4">
         <f>(S44+S45)*T17/100</f>
-        <v>443.93184000000002</v>
+        <v>291.47039999999998</v>
       </c>
     </row>
     <row r="47" spans="7:19" x14ac:dyDescent="0.3">
@@ -1433,7 +1433,7 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4">
         <f>S42+S43+S44+S45+S46</f>
-        <v>2001.8318399999998</v>
+        <v>1408.7303999999999</v>
       </c>
     </row>
     <row r="51" spans="7:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1462,7 +1462,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4">
         <f>S18</f>
-        <v>2390.4960000000001</v>
+        <v>3107.6448</v>
       </c>
     </row>
     <row r="55" spans="7:11" ht="105.75" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4">
         <f>S47</f>
-        <v>2001.8318399999998</v>
+        <v>1408.7303999999999</v>
       </c>
     </row>
     <row r="57" spans="7:11" x14ac:dyDescent="0.3">
@@ -1492,7 +1492,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4">
         <f>K54+K55+K56</f>
-        <v>5169.2390400000004</v>
+        <v>5293.2864</v>
       </c>
     </row>
     <row r="58" spans="7:11" x14ac:dyDescent="0.3">
@@ -1505,7 +1505,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4">
         <f>K57*H58/100</f>
-        <v>2584.6195200000002</v>
+        <v>2646.6432</v>
       </c>
     </row>
     <row r="59" spans="7:11" x14ac:dyDescent="0.3">
@@ -1515,7 +1515,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4">
         <f>K57+K58</f>
-        <v>7753.8585600000006</v>
+        <v>7939.9295999999995</v>
       </c>
     </row>
     <row r="60" spans="7:11" x14ac:dyDescent="0.3">
@@ -1528,7 +1528,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4">
         <f>K59*H60/100</f>
-        <v>3876.9292800000003</v>
+        <v>3969.9647999999997</v>
       </c>
     </row>
     <row r="61" spans="7:11" x14ac:dyDescent="0.3">
@@ -1538,7 +1538,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4">
         <f>K59+K60</f>
-        <v>11630.787840000001</v>
+        <v>11909.894399999999</v>
       </c>
     </row>
     <row r="62" spans="7:11" ht="45.75" x14ac:dyDescent="0.3">
@@ -1551,7 +1551,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4">
         <f>K61*H62/100</f>
-        <v>2326.1575680000005</v>
+        <v>2381.9788799999997</v>
       </c>
     </row>
     <row r="63" spans="7:11" x14ac:dyDescent="0.3">
@@ -1561,7 +1561,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4">
         <f>K61+K62</f>
-        <v>13956.945408000001</v>
+        <v>14291.87328</v>
       </c>
     </row>
     <row r="66" spans="9:11" x14ac:dyDescent="0.3">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="K66" s="2">
         <f>K60-K60*J67/100</f>
-        <v>3179.0820096000002</v>
+        <v>3255.3711359999998</v>
       </c>
     </row>
     <row r="67" spans="9:11" x14ac:dyDescent="0.3">

--- a/docs/ecomomics/calc.xlsx
+++ b/docs/ecomomics/calc.xlsx
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G12:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1331,7 +1331,7 @@
         <v>50</v>
       </c>
       <c r="J43" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K43" s="8">
         <v>0.3</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="M43" s="8">
         <f>L43*K43*J43</f>
-        <v>432</v>
+        <v>144</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>55</v>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="J44" s="8">
         <f>J42+J43</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>12</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="M44" s="8">
         <f>M43+M42</f>
-        <v>585</v>
+        <v>297</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>56</v>
@@ -1377,7 +1377,7 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4">
         <f>M46</f>
-        <v>702</v>
+        <v>356.4</v>
       </c>
     </row>
     <row r="45" spans="7:19" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8">
         <f>M44*H45/100</f>
-        <v>117</v>
+        <v>59.4</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>57</v>
@@ -1403,7 +1403,7 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4">
         <f>S44*20/100</f>
-        <v>140.4</v>
+        <v>71.28</v>
       </c>
     </row>
     <row r="46" spans="7:19" x14ac:dyDescent="0.3">
@@ -1415,7 +1415,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8">
         <f>M44+M45</f>
-        <v>702</v>
+        <v>356.4</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>58</v>
@@ -1423,7 +1423,7 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4">
         <f>(S44+S45)*T17/100</f>
-        <v>291.47039999999998</v>
+        <v>147.97727999999998</v>
       </c>
     </row>
     <row r="47" spans="7:19" x14ac:dyDescent="0.3">
@@ -1433,7 +1433,7 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4">
         <f>S42+S43+S44+S45+S46</f>
-        <v>1408.7303999999999</v>
+        <v>850.51727999999991</v>
       </c>
     </row>
     <row r="51" spans="7:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4">
         <f>S47</f>
-        <v>1408.7303999999999</v>
+        <v>850.51727999999991</v>
       </c>
     </row>
     <row r="57" spans="7:11" x14ac:dyDescent="0.3">
@@ -1492,7 +1492,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4">
         <f>K54+K55+K56</f>
-        <v>5293.2864</v>
+        <v>4735.0732799999996</v>
       </c>
     </row>
     <row r="58" spans="7:11" x14ac:dyDescent="0.3">
@@ -1505,7 +1505,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4">
         <f>K57*H58/100</f>
-        <v>2646.6432</v>
+        <v>2367.5366399999998</v>
       </c>
     </row>
     <row r="59" spans="7:11" x14ac:dyDescent="0.3">
@@ -1515,7 +1515,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4">
         <f>K57+K58</f>
-        <v>7939.9295999999995</v>
+        <v>7102.609919999999</v>
       </c>
     </row>
     <row r="60" spans="7:11" x14ac:dyDescent="0.3">
@@ -1528,7 +1528,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4">
         <f>K59*H60/100</f>
-        <v>3969.9647999999997</v>
+        <v>3551.3049599999995</v>
       </c>
     </row>
     <row r="61" spans="7:11" x14ac:dyDescent="0.3">
@@ -1538,7 +1538,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4">
         <f>K59+K60</f>
-        <v>11909.894399999999</v>
+        <v>10653.914879999998</v>
       </c>
     </row>
     <row r="62" spans="7:11" ht="45.75" x14ac:dyDescent="0.3">
@@ -1551,7 +1551,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4">
         <f>K61*H62/100</f>
-        <v>2381.9788799999997</v>
+        <v>2130.7829759999995</v>
       </c>
     </row>
     <row r="63" spans="7:11" x14ac:dyDescent="0.3">
@@ -1561,7 +1561,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4">
         <f>K61+K62</f>
-        <v>14291.87328</v>
+        <v>12784.697855999999</v>
       </c>
     </row>
     <row r="66" spans="9:11" x14ac:dyDescent="0.3">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="K66" s="2">
         <f>K60-K60*J67/100</f>
-        <v>3255.3711359999998</v>
+        <v>2912.0700671999994</v>
       </c>
     </row>
     <row r="67" spans="9:11" x14ac:dyDescent="0.3">
